--- a/public/media/excel-import/Plantilla - Importar mangas.xlsx
+++ b/public/media/excel-import/Plantilla - Importar mangas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08653F0F-FAD2-4086-B2CE-2D4D3ED5E80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFE27E-34FE-4C66-87CA-A9A68871CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Nombre</t>
   </si>
@@ -69,53 +69,65 @@
     <t>Bunkoban</t>
   </si>
   <si>
+    <t>Shônen</t>
+  </si>
+  <si>
+    <t>YOU AND I FELL IN LOVE WITH THE SAME PERSON</t>
+  </si>
+  <si>
+    <t>Shota Takeuchi (Take) es un chico que perdió parte de su vida escolar por problemas de salud. Una chica cercana a su familia, Haruko Umezawa (Umeko), lo cuidó durante mucho tiempo. Ella simplemente ve su relación como una amistad que apareció por circunstancias de la vida, no como algo que ella eligió.</t>
+  </si>
+  <si>
+    <t>Sucursal galería caracol</t>
+  </si>
+  <si>
+    <t>20th Century boys</t>
+  </si>
+  <si>
+    <t>20th Century Boys (y su continuación/epílogo, 21st Century Boys) es un manga perpetrado por el reconocidísimo Naoki Urasawa. El manga transcurre principalmente en tres líneas temporales paralelas, que van armando un puzzle: principios de los 70s, fines de los 90s y mediados de la década de 2010 (que en el momento de publicarse el manga, se trataba del futuro cercano), donde seguimos la vida de varios personajes, sus familias y hasta la muerte de algunos.</t>
+  </si>
+  <si>
+    <t>Seinen</t>
+  </si>
+  <si>
+    <t>Durante el último siglo, lo que quedaba de la humanidad se vio obligada a refugiarse en una ciudad enorme y escondida, protegida por tres inmensos muros debido al temor hacia los extraños y gigantescos Titanes. Poco se sabe acerca de sus orígenes, pero la repentina aparición de un enorme Titán está a punto de cambiarlo todo…</t>
+  </si>
+  <si>
+    <t>Attack on Titan</t>
+  </si>
+  <si>
+    <t>Ovnipress</t>
+  </si>
+  <si>
+    <t>Shounen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Codigo</t>
+  </si>
+  <si>
+    <t>120TH CENTURY BOYS 01</t>
+  </si>
+  <si>
+    <t>2ATTACK ON TITAN VOL. 1</t>
+  </si>
+  <si>
+    <t>KORI1u66LIsBK</t>
+  </si>
+  <si>
+    <t>KORIHMXVOy6hx</t>
+  </si>
+  <si>
     <t>10TH - YOU AND I FELL IN LOVE WITH THE SAME PERSON - 01</t>
-  </si>
-  <si>
-    <t>Shônen</t>
-  </si>
-  <si>
-    <t>YOU AND I FELL IN LOVE WITH THE SAME PERSON</t>
-  </si>
-  <si>
-    <t>Shota Takeuchi (Take) es un chico que perdió parte de su vida escolar por problemas de salud. Una chica cercana a su familia, Haruko Umezawa (Umeko), lo cuidó durante mucho tiempo. Ella simplemente ve su relación como una amistad que apareció por circunstancias de la vida, no como algo que ella eligió.</t>
-  </si>
-  <si>
-    <t>20TH CENTURY BOYS 01</t>
-  </si>
-  <si>
-    <t>Sucursal galería caracol</t>
-  </si>
-  <si>
-    <t>20th Century boys</t>
-  </si>
-  <si>
-    <t>20th Century Boys (y su continuación/epílogo, 21st Century Boys) es un manga perpetrado por el reconocidísimo Naoki Urasawa. El manga transcurre principalmente en tres líneas temporales paralelas, que van armando un puzzle: principios de los 70s, fines de los 90s y mediados de la década de 2010 (que en el momento de publicarse el manga, se trataba del futuro cercano), donde seguimos la vida de varios personajes, sus familias y hasta la muerte de algunos.</t>
-  </si>
-  <si>
-    <t>Seinen</t>
-  </si>
-  <si>
-    <t>ATTACK ON TITAN VOL. 1</t>
-  </si>
-  <si>
-    <t>Durante el último siglo, lo que quedaba de la humanidad se vio obligada a refugiarse en una ciudad enorme y escondida, protegida por tres inmensos muros debido al temor hacia los extraños y gigantescos Titanes. Poco se sabe acerca de sus orígenes, pero la repentina aparición de un enorme Titán está a punto de cambiarlo todo…</t>
-  </si>
-  <si>
-    <t>Attack on Titan</t>
-  </si>
-  <si>
-    <t>Ovnipress</t>
-  </si>
-  <si>
-    <t>Shounen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +139,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="&quot;Helvetica LT Std&quot;"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -170,10 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,145 +478,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1">
+        <v>9500</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1">
-        <v>9500</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1">
+        <v>18500</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8</v>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
-        <v>18500</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="D4" s="1">
+        <v>1231</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1">
-        <v>1231</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7</v>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/public/media/excel-import/Plantilla - Importar mangas.xlsx
+++ b/public/media/excel-import/Plantilla - Importar mangas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Baeza\Documents\kori\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xampp\korimangastore\public\media\excel-import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADFE27E-34FE-4C66-87CA-A9A68871CDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F96CDC-74E6-4A1A-A316-FF8CB5B7C942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>Nombre</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Ovnipress</t>
   </si>
   <si>
-    <t>Shounen</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -121,6 +118,84 @@
   </si>
   <si>
     <t>10TH - YOU AND I FELL IN LOVE WITH THE SAME PERSON - 01</t>
+  </si>
+  <si>
+    <t>Shin es un niño huérfano de guerra que vive en el reino de Qin y que ha acabado convertido en esclavo. Junto a su amigo Hyou, sueña con convertirse en un gran general como los legendarios que condujeron enormes ejércitos. Su vida da un vuelco el día que reclutan a Hyou como doble de Ei Sei, Rey de Qin, y ahí empiezan una serie de acontecimientos que lo llevan a unirse al ejército y vivir el mismo sueño que su Rey: unificar los siete reinos en uno solo, China.</t>
+  </si>
+  <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>KINGDOM-01</t>
+  </si>
+  <si>
+    <t>Rústica con sobrecubierta</t>
+  </si>
+  <si>
+    <t>GUNNM LAST ORDER 01</t>
+  </si>
+  <si>
+    <t>Gally vuelve a abrir los ojos gracias a la nanotecnología desarrollada por Desty Nova, el mismo que le pusiera una trampa mortal un año atrás. El científico salemiano se ocupa de reconstruir su cerebro, lo que provoca que más recuerdos de su pasado salgan a la luz, además de brindarle un nuevo cuerpo con la capacidad de explotar sus habilidades al máximo. Ella está ahora en Salem y se encuentra con una ciudad devastada: se desató una guerra civil al descubrirse lo que escondía la ciudad flotante.</t>
+  </si>
+  <si>
+    <t>GUNNM: LAST ORDER</t>
+  </si>
+  <si>
+    <t>GRYPHOON nº 01/06 PLANETA MANGA</t>
+  </si>
+  <si>
+    <t>El mayor sueño de Noha Argonnar es convertirse en Gryphoon para así descubrir qué misterios esconde la extraña muerte de su hermano. Para lograr ingresar como cadete en la única unidad militar de todo Ark capaz de derrotar a los Eckhos, primero deberá superar durísimas pruebas y vencer los numerosos peligros que se encontrará por el camino. Así que pronto comprenderá que la única manera de superar todas las adversidades será aliándose con otros cuatro candidatos: un ex convicto, un gigante, un ingenioso ondina y una talentosa silvana. ¿Podrá este variopinto grupo llegar a convertirse en Gryphoon?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gryphoon </t>
+  </si>
+  <si>
+    <t>HIMAWARI</t>
+  </si>
+  <si>
+    <t>SUNNY NUM. 05 DE 6 </t>
+  </si>
+  <si>
+    <t>Período Bakumatsu. Himawari, una niña de cuatro años y su hermano mayor Shunya, de ocho, observan aterrorizados cómo asesinan a sus padres ante sus ojos. Despavoridos, huyen a las montañas para salvar su vida, observando impotentes la gran nube de humo que levantan las llamas que destruyen su casa.</t>
+  </si>
+  <si>
+    <t>Ambientada en una casa de acogida, Sunny ofrece una peculiar visión del mundo: la de un grupo de niños muy especiales, abandonados u obligados por las circunstancias a estar lejos de sus familias. Imaginativos, inquietos y gamberros, pero también nostálgicos e inevitablemente marcados por las circunstancias, aprovechan cada ocasión que se les presenta para jugar en el Sunny 1200 situado en el jardín del refugio, un viejo coche convertido en su pasatiempo preferido.</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHAINSAW MAN 01 </t>
+  </si>
+  <si>
+    <t>CHAINSAW</t>
+  </si>
+  <si>
+    <t>Denji es un chico sin un duro que se deja la piel trabajando como Devil Hunter junto a su perro demoníaco Pochita para resarcir una deuda astronómica, pero entonces... ¡¡Una sangrienta traición da un giro radical a su miserable vida!!</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES-NUM. 05</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES-NUM. 01</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES-NUM. 02</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES-NUM. 03</t>
+  </si>
+  <si>
+    <t>Desde su primera publicación en 1972 en la revista semanal Margaret, La rosa de Versalles ha tenido una gran acogida por parte de sus lectores a lo largo de más de 40 años. Un drama humano con el trasfondo de la Revolución francesa, que comienza con el encuentro entre María Antonieta, Óscar François y Hans Axel von Fersen.</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES-NUM. 04</t>
+  </si>
+  <si>
+    <t>LA ROSA DE VERSALLES-NUM. 06</t>
   </si>
 </sst>
 </file>
@@ -136,15 +211,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="&quot;Helvetica LT Std&quot;"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="&quot;Helvetica LT Std&quot;"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,11 +262,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,159 +562,543 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.21875" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9500</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18500</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1231</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1">
-        <v>9500</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="3">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="28.5">
+      <c r="A7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1">
-        <v>18500</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1231</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1</v>
+      <c r="J9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="28.5">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="28.5">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.5">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="28.5">
+      <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
